--- a/pa2/train_impute_NumberOfDependents.xlsx
+++ b/pa2/train_impute_NumberOfDependents.xlsx
@@ -58,13 +58,13 @@
     <t>score</t>
   </si>
   <si>
-    <t>['MonthlyIncome_log', 'NumberRealEstateLoansOrLines', 'age']</t>
-  </si>
-  <si>
-    <t>RandomForestR</t>
-  </si>
-  <si>
-    <t>NumberOfDependents</t>
+    <t>RandomForestC</t>
+  </si>
+  <si>
+    <t>['RevolvingUtilizationOfUnsecuredLines_log', 'age', 'NumberOfTime30-59DaysPastDueNotWorse', 'DebtRatio', 'MonthlyIncome_log', 'NumberOfOpenCreditLinesAndLoans', 'NumberOfTimes90DaysLate', 'NumberRealEstateLoansOrLines', 'NumberOfTime60-89DaysPastDueNotWorse', 'NumberOfDependents']</t>
+  </si>
+  <si>
+    <t>SeriousDlqin2yrs</t>
   </si>
   <si>
     <t>NA</t>
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,16 +480,16 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s"/>
       <c r="F2" t="n">
         <v>0.2</v>
       </c>
@@ -507,30 +507,30 @@
         <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>1.370185567180521</v>
-      </c>
-      <c r="M2" t="s">
+        <v>0.0653</v>
+      </c>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s"/>
       <c r="O2" t="n">
-        <v>0.6266829360565538</v>
+        <v>0.9905083333333333</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="n">
         <v>0.2</v>
       </c>
@@ -548,30 +548,30 @@
         <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>1.374442813561251</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s"/>
+        <v>0.06596666666666667</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
       <c r="O3" t="n">
-        <v>0.6265295012087111</v>
+        <v>0.9906416666666666</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="n">
         <v>0.2</v>
       </c>
@@ -589,55 +589,14 @@
         <v>18</v>
       </c>
       <c r="L4" t="n">
-        <v>1.288811239435071</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="n">
+        <v>100</v>
+      </c>
       <c r="O4" t="n">
-        <v>0.5546514776744662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.214914062082132</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="n">
-        <v>0.474420535424857</v>
+        <v>0.999675</v>
       </c>
     </row>
   </sheetData>
